--- a/document/DOC133/BIEN BAN GIAO HANG.xlsx
+++ b/document/DOC133/BIEN BAN GIAO HANG.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\document\DOC133\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="375" windowWidth="20055" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -240,9 +245,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>File:233, tờ khai 100327456720</t>
-  </si>
-  <si>
     <t>ANDRITZ SINGAPORE PTE LTD</t>
   </si>
   <si>
@@ -250,17 +252,20 @@
   </si>
   <si>
     <t>Vải lọc cho máy ép bùn khung bản - trong quy trình sản xuất giấy, bằng sợi polypropylene. kích thước: 1000 x 1000 mm, mới 100%</t>
+  </si>
+  <si>
+    <t>Job:233, tờ khai 100327456720</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,59 +425,59 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -487,6 +492,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -535,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,9 +575,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,6 +610,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,17 +786,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -808,117 +818,117 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:18" ht="11.25" customHeight="1">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-    </row>
-    <row r="3" spans="2:18" ht="12" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="2:18" ht="12" customHeight="1">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-    </row>
-    <row r="5" spans="2:18" ht="12" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-    </row>
-    <row r="6" spans="2:18" ht="12" customHeight="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="2:18" ht="11.25" customHeight="1">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="11.25" customHeight="1">
+    <row r="8" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="11.25" customHeight="1">
+    <row r="9" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:18" ht="11.25" customHeight="1">
+    <row r="10" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
@@ -939,7 +949,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="11.25" customHeight="1">
+    <row r="11" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -958,12 +968,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:18" ht="11.25" customHeight="1">
+    <row r="12" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="E12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:18" ht="11.25" customHeight="1">
+    <row r="13" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -979,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="11.25" customHeight="1">
+    <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -994,77 +1004,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="37" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="35"/>
+      <c r="O15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="35"/>
+      <c r="Q15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-    </row>
-    <row r="17" spans="1:18" ht="76.5" customHeight="1"/>
-    <row r="18" spans="1:18" ht="56.25" customHeight="1">
-      <c r="B18" s="39" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="27"/>
-      <c r="J18" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="J18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="31">
         <v>78</v>
       </c>
@@ -1076,155 +1086,150 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="48.75" customHeight="1">
+    <row r="19" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="D19" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43">
+      <c r="D19" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45">
         <v>4421020507</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="26"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="29"/>
     </row>
-    <row r="20" spans="1:18" ht="0.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:18" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="26"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:18" ht="23.25" customHeight="1">
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" customHeight="1">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="H22" s="26"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:18" ht="42" customHeight="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:18" ht="42" customHeight="1">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:18" ht="30" customHeight="1">
+      <c r="B24" s="47"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:18" ht="30" customHeight="1">
-      <c r="H26" s="35"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:18" ht="30" customHeight="1">
-      <c r="H27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:18" ht="30" customHeight="1">
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="38"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
       <c r="Q28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="30" customHeight="1">
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:18" ht="30" customHeight="1">
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="1:18" ht="30" customHeight="1">
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-    </row>
-    <row r="32" spans="1:18" ht="30" customHeight="1">
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="10:10" ht="30" customHeight="1">
+    <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+    </row>
+    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="10:10" ht="30" customHeight="1">
+    <row r="34" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="10:10" ht="30" customHeight="1">
+    <row r="35" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="10:10" ht="30" customHeight="1">
+    <row r="36" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="10:10" ht="30" customHeight="1">
+    <row r="37" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="10:10" ht="11.25" customHeight="1">
+    <row r="38" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="10:10" ht="11.25" customHeight="1">
+    <row r="39" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J39" s="22"/>
     </row>
-    <row r="40" spans="10:10" ht="11.25" customHeight="1">
+    <row r="40" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="10:10" ht="11.25" customHeight="1">
+    <row r="41" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J41" s="22"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="B2:G6"/>
-    <mergeCell ref="H2:N6"/>
-    <mergeCell ref="O2:Q6"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="J26:L27"/>
     <mergeCell ref="Q15:Q16"/>
@@ -1240,11 +1245,16 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="H2:N6"/>
+    <mergeCell ref="O2:Q6"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
   </mergeCells>
   <pageMargins left="1.5" right="0" top="0.5" bottom="0.75" header="0.05" footer="0.3"/>
   <pageSetup scale="61" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1252,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1262,7 +1272,7 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -1284,117 +1294,117 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:18" ht="11.25" customHeight="1">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-    </row>
-    <row r="3" spans="2:18" ht="12" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="2:18" ht="12" customHeight="1">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-    </row>
-    <row r="5" spans="2:18" ht="12" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-    </row>
-    <row r="6" spans="2:18" ht="12" customHeight="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="2:18" ht="11.25" customHeight="1">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="11.25" customHeight="1">
+    <row r="8" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="11.25" customHeight="1">
+    <row r="9" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:18" ht="11.25" customHeight="1">
+    <row r="10" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1425,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="11.25" customHeight="1">
+    <row r="11" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1434,12 +1444,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:18" ht="11.25" customHeight="1">
+    <row r="12" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="E12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:18" ht="11.25" customHeight="1">
+    <row r="13" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="11.25" customHeight="1">
+    <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1470,77 +1480,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="37" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="35"/>
+      <c r="O15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="35"/>
+      <c r="Q15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-    </row>
-    <row r="17" spans="2:18" ht="76.5" customHeight="1"/>
-    <row r="18" spans="2:18" ht="56.25" customHeight="1">
-      <c r="B18" s="39" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" spans="2:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="16"/>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="23" t="s">
         <v>67</v>
       </c>
@@ -1549,156 +1559,143 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="48.75" customHeight="1">
+    <row r="19" spans="2:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="18"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="2:18" ht="0.75" hidden="1" customHeight="1">
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="2:18" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="18"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="2:18" ht="23.25" customHeight="1">
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-    </row>
-    <row r="22" spans="2:18" ht="24.75" customHeight="1">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="H22" s="18"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="2:18" ht="48" customHeight="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="2:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
       <c r="O23" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="30" customHeight="1">
+    <row r="24" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="2:18" ht="30" customHeight="1">
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
       <c r="O25" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="30" customHeight="1">
-      <c r="H26" s="35"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="2:18" ht="30" customHeight="1">
-      <c r="H27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="2:18" ht="30" customHeight="1">
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+    <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="38"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
       <c r="Q28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="30" customHeight="1">
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="2:18" ht="30" customHeight="1">
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="2:18" ht="30" customHeight="1">
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-    </row>
-    <row r="32" spans="2:18" ht="30" customHeight="1">
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="10:10" ht="30" customHeight="1">
+    <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+    </row>
+    <row r="32" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="10:10" ht="30" customHeight="1">
+    <row r="34" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="10:10" ht="30" customHeight="1">
+    <row r="35" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="10:10" ht="30" customHeight="1">
+    <row r="36" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="10:10" ht="30" customHeight="1">
+    <row r="37" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="10:10" ht="11.25" customHeight="1">
+    <row r="38" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="10:10" ht="11.25" customHeight="1">
+    <row r="39" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J39" s="22"/>
     </row>
-    <row r="40" spans="10:10" ht="11.25" customHeight="1">
+    <row r="40" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="10:10" ht="11.25" customHeight="1">
+    <row r="41" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J41" s="22"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="O2:Q6"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="B2:G6"/>
-    <mergeCell ref="H2:N6"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="M18:N18"/>
@@ -1715,6 +1712,19 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="J21:L22"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="O2:Q6"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="H2:N6"/>
   </mergeCells>
   <pageMargins left="1.5" right="0" top="0.5" bottom="0.75" header="0.05" footer="0.3"/>
   <pageSetup scale="61" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1722,7 +1732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R42"/>
   <sheetViews>
@@ -1730,7 +1740,7 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -1752,117 +1762,117 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:18" ht="11.25" customHeight="1">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-    </row>
-    <row r="3" spans="2:18" ht="12" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="2:18" ht="12" customHeight="1">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-    </row>
-    <row r="5" spans="2:18" ht="12" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-    </row>
-    <row r="6" spans="2:18" ht="12" customHeight="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="2:18" ht="11.25" customHeight="1">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="11.25" customHeight="1">
+    <row r="8" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="11.25" customHeight="1">
+    <row r="9" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:18" ht="11.25" customHeight="1">
+    <row r="10" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1893,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="11.25" customHeight="1">
+    <row r="11" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1902,12 +1912,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:18" ht="11.25" customHeight="1">
+    <row r="12" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="E12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:18" ht="11.25" customHeight="1">
+    <row r="13" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="11.25" customHeight="1">
+    <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1938,59 +1948,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="37" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="35"/>
+      <c r="O15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="35"/>
+      <c r="Q15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-    </row>
-    <row r="18" spans="2:17">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
@@ -2016,44 +2026,44 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
-      <c r="D19" s="41" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="43"/>
       <c r="H19" s="18"/>
       <c r="J19" s="15"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H22" s="18"/>
       <c r="J22" s="15"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J23" s="15"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J24" s="15"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J25" s="15"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2089,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +2115,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2139,7 +2149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2205,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2225,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
